--- a/iem-nodejs/Uploads/advance networking.xlsx
+++ b/iem-nodejs/Uploads/advance networking.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iem-package\question papers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+  <si>
+    <t>########</t>
+  </si>
   <si>
     <t>Q_no</t>
   </si>
@@ -62,9 +60,6 @@
     <t>first six</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Op3 is right because..</t>
   </si>
   <si>
@@ -86,9 +81,6 @@
     <t>The probability that a single bit will be in error on a typical public telephone line using 4800 bps modem is 10 to the power -3. If no error detection mechanism is used, the residual error rate for a communication line using 9-bit frames is approximately equal to</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Question 4Frames from one LAN can be transmitted to another LAN via the device</t>
   </si>
   <si>
@@ -134,9 +126,6 @@
     <t>255.254.0.0</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>What are the most commonly used transmission speeds in BPS used in data communication?</t>
   </si>
   <si>
@@ -183,22 +172,19 @@
   </si>
   <si>
     <t>All of the above</t>
-  </si>
-  <si>
-    <t>########</t>
-  </si>
-  <si>
-    <t>####</t>
-  </si>
-  <si>
-    <t>#####</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,16 +204,346 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -235,9 +551,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -248,19 +806,58 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -543,94 +1140,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.8857142857143" customWidth="1"/>
+    <col min="2" max="2" width="35.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="31.8857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46.8">
+    <row r="4" ht="47.25" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
         <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="62.4">
+    <row r="5" ht="63" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -649,14 +1240,14 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="124.8">
+    <row r="6" ht="110.25" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -664,108 +1255,108 @@
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="D6" s="2">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="E6" s="2">
-        <v>0.99099999999999999</v>
+        <v>0.991</v>
       </c>
       <c r="F6" s="2">
         <v>0.999</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.8">
+    <row r="7" ht="28.5" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="46.8">
+    <row r="8" ht="47.25" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="109.2">
+    <row r="9" ht="110.25" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.8">
+    <row r="10" ht="47.25" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -779,117 +1370,125 @@
       <c r="F10">
         <v>9600</v>
       </c>
-      <c r="G10" t="s">
-        <v>37</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.8">
+    <row r="11" ht="31.5" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.8">
+    <row r="12" ht="31.5" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="156.6">
+    <row r="13" ht="142.5" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>